--- a/Table/client/lua/exe/temp/S 神兽解锁表.xlsx
+++ b/Table/client/lua/exe/temp/S 神兽解锁表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DC5872-826A-4E74-9F78-E5D5DDA47F6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C07686-D732-43F7-9539-EA1692B82A5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="570" windowWidth="28830" windowHeight="15630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,7 +426,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -511,7 +511,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Table/client/lua/exe/temp/S 神兽解锁表.xlsx
+++ b/Table/client/lua/exe/temp/S 神兽解锁表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C07686-D732-43F7-9539-EA1692B82A5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DC5872-826A-4E74-9F78-E5D5DDA47F6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="570" windowWidth="28830" windowHeight="15630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,7 +426,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -511,6 +511,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>